--- a/Order_Report_BreeWilliams7186643505.xlsx
+++ b/Order_Report_BreeWilliams7186643505.xlsx
@@ -57,10 +57,10 @@
     <t>breehannawilliams@gmail.com</t>
   </si>
   <si>
-    <t>Ridgewood Street</t>
-  </si>
-  <si>
-    <t>Kalamazoo</t>
+    <t>17 Mile Road</t>
+  </si>
+  <si>
+    <t>Jackson</t>
   </si>
   <si>
     <t>Recipient First Name</t>
@@ -75,10 +75,10 @@
     <t>Rosewarne</t>
   </si>
   <si>
-    <t>Golden Avenue</t>
-  </si>
-  <si>
-    <t>Hastings</t>
+    <t>Whites Road</t>
+  </si>
+  <si>
+    <t>Lansing</t>
   </si>
   <si>
     <t>Date Ordered</t>
@@ -96,13 +96,13 @@
     <t>Accessory</t>
   </si>
   <si>
-    <t>Balloons</t>
-  </si>
-  <si>
     <t>Glass Vase</t>
   </si>
   <si>
     <t>Box of Chocolates</t>
+  </si>
+  <si>
+    <t>Personal Card</t>
   </si>
   <si>
     <t>Total w/o Tax</t>
@@ -517,7 +517,7 @@
         <v>14</v>
       </c>
       <c r="I2">
-        <v>49006</v>
+        <v>56892</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>546</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -573,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>90876</v>
+        <v>78965</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +617,7 @@
         <v>45996</v>
       </c>
       <c r="B2" s="2">
-        <v>46011</v>
+        <v>46016</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -646,13 +646,13 @@
         <v>20.99</v>
       </c>
       <c r="D3" s="3">
-        <v>7.99</v>
+        <v>10.99</v>
       </c>
       <c r="E3" s="3">
-        <v>10.99</v>
+        <v>12.99</v>
       </c>
       <c r="F3" s="3">
-        <v>12.99</v>
+        <v>5.99</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(C3:H3)</f>
